--- a/results/mp/logistic/corona/confidence/126/topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,33 +40,24 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -88,81 +79,84 @@
     <t>great</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>support</t>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>well</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
@@ -170,6 +164,9 @@
   </si>
   <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
 </sst>
 </file>
@@ -527,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7431506849315068</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,19 +611,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -638,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -646,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.7431506849315068</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5882352941176471</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5526315789473685</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5277777777777778</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.835509138381201</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L7">
-        <v>320</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>320</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>63</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.417989417989418</v>
+        <v>0.3449612403100775</v>
       </c>
       <c r="C8">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="D8">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>110</v>
+        <v>338</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.7830188679245284</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L8">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M8">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4117647058823529</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.7804878048780488</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L9">
-        <v>64</v>
+        <v>312</v>
       </c>
       <c r="M9">
-        <v>64</v>
+        <v>312</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.310077519379845</v>
+        <v>0.1138888888888889</v>
       </c>
       <c r="C10">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="D10">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -964,195 +961,123 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L10">
+        <v>47</v>
+      </c>
+      <c r="M10">
+        <v>47</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>0.7926829268292683</v>
+      </c>
+      <c r="L11">
+        <v>65</v>
+      </c>
+      <c r="M11">
+        <v>65</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="L12">
+        <v>30</v>
+      </c>
+      <c r="M12">
+        <v>30</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K10">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L10">
-        <v>28</v>
-      </c>
-      <c r="M10">
-        <v>28</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>55</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11">
-        <v>0.7758620689655172</v>
-      </c>
-      <c r="L11">
-        <v>45</v>
-      </c>
-      <c r="M11">
-        <v>45</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.2080536912751678</v>
-      </c>
-      <c r="C12">
+      <c r="K13">
+        <v>0.7578125</v>
+      </c>
+      <c r="L13">
+        <v>97</v>
+      </c>
+      <c r="M13">
+        <v>97</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>31</v>
-      </c>
-      <c r="D12">
-        <v>31</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>118</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>0.7746478873239436</v>
-      </c>
-      <c r="L12">
-        <v>110</v>
-      </c>
-      <c r="M12">
-        <v>110</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.1305555555555556</v>
-      </c>
-      <c r="C13">
-        <v>47</v>
-      </c>
-      <c r="D13">
-        <v>47</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>313</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L13">
-        <v>30</v>
-      </c>
-      <c r="M13">
-        <v>30</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.76875</v>
+        <v>0.75625</v>
       </c>
       <c r="L14">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M14">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1164,21 +1089,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7578125</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1190,12 +1115,12 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K16">
         <v>0.75</v>
@@ -1221,16 +1146,16 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.7307692307692307</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1242,21 +1167,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.7301587301587301</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1268,21 +1193,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.723404255319149</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1294,21 +1219,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.7083333333333334</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1320,21 +1245,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.7037037037037037</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1346,21 +1271,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6976744186046512</v>
+        <v>0.64</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1372,21 +1297,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.68</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1403,16 +1328,16 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6666666666666666</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1424,21 +1349,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.611764705882353</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L25">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M25">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1450,21 +1375,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1476,21 +1401,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5851063829787234</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1502,21 +1427,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5538461538461539</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1528,21 +1453,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5481171548117155</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L29">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1554,21 +1479,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>108</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5423728813559322</v>
+        <v>0.5481171548117155</v>
       </c>
       <c r="L30">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="M30">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1580,12 +1505,12 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K31">
         <v>0.5</v>
@@ -1611,16 +1536,16 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.4382022471910113</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L32">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1632,41 +1557,41 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33">
+        <v>0.4382022471910113</v>
+      </c>
+      <c r="L33">
+        <v>39</v>
+      </c>
+      <c r="M33">
+        <v>39</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>50</v>
-      </c>
-      <c r="K33">
-        <v>0.273972602739726</v>
-      </c>
-      <c r="L33">
-        <v>20</v>
-      </c>
-      <c r="M33">
-        <v>20</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>53</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.2435897435897436</v>
+        <v>0.2602739726027397</v>
       </c>
       <c r="L34">
         <v>19</v>
@@ -1684,7 +1609,59 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>59</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="L35">
+        <v>20</v>
+      </c>
+      <c r="M35">
+        <v>20</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36">
+        <v>0.007871064467766116</v>
+      </c>
+      <c r="L36">
+        <v>21</v>
+      </c>
+      <c r="M36">
+        <v>26</v>
+      </c>
+      <c r="N36">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O36">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>2647</v>
       </c>
     </row>
   </sheetData>
